--- a/biology/Botanique/Ruggeri_140/Ruggeri_140.xlsx
+++ b/biology/Botanique/Ruggeri_140/Ruggeri_140.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ruggeri 140, souvent abrégé en 140 Ru, est un porte-greffe hybride de vigne.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 140 Ru est issu de l'hybridation de Vitis berlandieri et Vitis rupestris (Berlandieri Ressegier n° 2 x Rupestris du Lot)[1].
-Il a été créé en Sicile[1] en 1894 par Antonio Ruggeri (de)[2], pour sa résistance à la sécheresse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 140 Ru est issu de l'hybridation de Vitis berlandieri et Vitis rupestris (Berlandieri Ressegier n° 2 x Rupestris du Lot).
+Il a été créé en Sicile en 1894 par Antonio Ruggeri (de), pour sa résistance à la sécheresse.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaptation au terroir
-Le 140 Ruggeri tolère un taux de calcaire actif de 25 à 30 %. Porte-greffe qui résiste bien à la sécheresse, il est bien adapté aux terres argilo-calcaires maigres ou caillouteuses[3]. Il est notamment utilisé dans la région de Cognac[4].
-Aptitude au greffage
-Le 140 Ru confère au greffon une grande vigueur et un retard de maturité[3]. Il résiste bien au phylloxéra radicicole et au mildiou[2].
+          <t>Adaptation au terroir</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 140 Ruggeri tolère un taux de calcaire actif de 25 à 30 %. Porte-greffe qui résiste bien à la sécheresse, il est bien adapté aux terres argilo-calcaires maigres ou caillouteuses. Il est notamment utilisé dans la région de Cognac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ruggeri_140</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruggeri_140</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aptitude au greffage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 140 Ru confère au greffon une grande vigueur et un retard de maturité. Il résiste bien au phylloxéra radicicole et au mildiou.
 </t>
         </is>
       </c>
